--- a/LISTA ITSAO.xlsx
+++ b/LISTA ITSAO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\don_z\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CursoGIT\ListaITSAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD3060-EDBA-4399-BD02-C10A834A16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>LISTA CURSO GIT ITSAO</t>
   </si>
@@ -48,16 +49,64 @@
   </si>
   <si>
     <t>PONENCIA</t>
+  </si>
+  <si>
+    <t>CORTÉS</t>
+  </si>
+  <si>
+    <t>MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>NOMBRE(S)</t>
+  </si>
+  <si>
+    <t>KEILA VASTHI</t>
+  </si>
+  <si>
+    <t>keila.cm@itsao.edu.mx</t>
+  </si>
+  <si>
+    <t>Ing. Informática</t>
+  </si>
+  <si>
+    <t>Programación</t>
+  </si>
+  <si>
+    <t>Aprendizaje Automático</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,20 +144,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{18718A55-B9A9-46C1-A130-60597CDBDB7B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -382,236 +436,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7335827788</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{109AD585-2530-4ACA-B33C-431784FBDCF0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/LISTA ITSAO.xlsx
+++ b/LISTA ITSAO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CursoGIT\ListaITSAO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSAO_ANALAURA\Desktop\Proyectos en GITHUB\ListaITSAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD3060-EDBA-4399-BD02-C10A834A16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF2F0F-4E7A-4442-97E9-104576E4D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>LISTA CURSO GIT ITSAO</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Aprendizaje Automático</t>
+  </si>
+  <si>
+    <t>Nieto</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Ana Laura</t>
+  </si>
+  <si>
+    <t>analaura.nieto.r@gmail.com/analaura.nieto@itsao.edu.mx</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>Análisis y modelado de SW, Bases de Datos, Programación, administración de proyectos</t>
   </si>
 </sst>
 </file>
@@ -439,16 +457,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -519,13 +541,27 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9531095699</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,8 +739,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{109AD585-2530-4ACA-B33C-431784FBDCF0}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{F07FBF51-7D31-484C-8D17-4C57D798384B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/LISTA ITSAO.xlsx
+++ b/LISTA ITSAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSAO_ANALAURA\Desktop\Proyectos en GITHUB\ListaITSAO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcr03\OneDrive\Escritorio\Clon Lista\ListaITSAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF2F0F-4E7A-4442-97E9-104576E4D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7EF53-E369-46EA-83F6-A01C4CB5D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>LISTA CURSO GIT ITSAO</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>Análisis y modelado de SW, Bases de Datos, Programación, administración de proyectos</t>
+  </si>
+  <si>
+    <t>CARIÑO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>FILEMON</t>
+  </si>
+  <si>
+    <t>fcr03@hotmail.com</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
   </si>
 </sst>
 </file>
@@ -458,22 +473,22 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -481,7 +496,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -508,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -537,7 +552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -564,20 +579,36 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9531265507</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -590,7 +621,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -603,7 +634,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -616,7 +647,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -629,7 +660,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -642,7 +673,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -655,7 +686,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -668,7 +699,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -681,7 +712,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -694,7 +725,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -707,7 +738,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -720,7 +751,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -740,8 +771,9 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{109AD585-2530-4ACA-B33C-431784FBDCF0}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{F07FBF51-7D31-484C-8D17-4C57D798384B}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{AF9B067D-D5C7-4728-863F-9D7F51FDA617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
--- a/LISTA ITSAO.xlsx
+++ b/LISTA ITSAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcr03\OneDrive\Escritorio\Clon Lista\ListaITSAO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATRICIA BRAVO\OneDrive - INSTITUTO TECNOLOGICO SUPERIOR DE ACATLAN DE OSORIO\Escritorio\ListaCursoGitHub\ListaITSAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7EF53-E369-46EA-83F6-A01C4CB5D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1F55D-44AA-426D-9951-1EA15DE2DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>LISTA CURSO GIT ITSAO</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>Base de datos</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>patricia.bravo@itsao.edu.mx</t>
+  </si>
+  <si>
+    <t>IINF</t>
+  </si>
+  <si>
+    <t>EMPRENDEDURISMO</t>
+  </si>
+  <si>
+    <t>MODELO DE NEGOCIOS CANVAS</t>
   </si>
 </sst>
 </file>
@@ -473,22 +494,22 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -496,7 +517,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -523,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -552,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -579,7 +600,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -608,20 +629,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9531169340</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,7 +671,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -647,7 +684,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -660,7 +697,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -673,7 +710,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -686,7 +723,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -699,7 +736,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -712,7 +749,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -725,7 +762,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -738,7 +775,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -751,7 +788,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -772,8 +809,9 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{109AD585-2530-4ACA-B33C-431784FBDCF0}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{F07FBF51-7D31-484C-8D17-4C57D798384B}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{AF9B067D-D5C7-4728-863F-9D7F51FDA617}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{B334A4DD-F622-40FD-8283-90A6729E0459}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
--- a/LISTA ITSAO.xlsx
+++ b/LISTA ITSAO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATRICIA BRAVO\OneDrive - INSTITUTO TECNOLOGICO SUPERIOR DE ACATLAN DE OSORIO\Escritorio\ListaCursoGitHub\ListaITSAO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\GIT2025\ListaITSAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1F55D-44AA-426D-9951-1EA15DE2DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>LISTA CURSO GIT ITSAO</t>
   </si>
@@ -127,12 +126,30 @@
   </si>
   <si>
     <t>MODELO DE NEGOCIOS CANVAS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>ELOY</t>
+  </si>
+  <si>
+    <t>eloymtzparra@gmail.com</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>Inteligencia de Negocios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +232,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{18718A55-B9A9-46C1-A130-60597CDBDB7B}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,26 +507,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-    <col min="9" max="9" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,7 +534,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -544,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -573,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -600,7 +617,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -629,7 +646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -658,20 +675,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9531166451</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -684,7 +715,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -697,7 +728,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -710,7 +741,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -723,7 +754,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -736,7 +767,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -749,7 +780,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -762,7 +793,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -775,7 +806,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -788,7 +819,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -806,12 +837,13 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{109AD585-2530-4ACA-B33C-431784FBDCF0}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{F07FBF51-7D31-484C-8D17-4C57D798384B}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{AF9B067D-D5C7-4728-863F-9D7F51FDA617}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{B334A4DD-F622-40FD-8283-90A6729E0459}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>